--- a/キーワードリスト.xlsx
+++ b/キーワードリスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239008\Desktop\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\231039\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658C183E-A218-4997-BA76-62437418DF4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16A9B2C-2157-49F6-A9F1-0034F422D99B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6740" xr2:uid="{4ADB7A3A-F384-487C-8844-9ABDB16DDC2E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6744" xr2:uid="{4ADB7A3A-F384-487C-8844-9ABDB16DDC2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -919,18 +919,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FD5E92-8A6A-409C-9C76-D8C669403ED8}">
   <dimension ref="A2:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.9140625" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -959,7 +959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -974,7 +974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -989,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1724,242 +1724,242 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>100</v>
       </c>

--- a/キーワードリスト.xlsx
+++ b/キーワードリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239008\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1140E135-C39D-48E0-87E9-3E4276B361EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3087EBA-7EAB-439A-8E6B-2894F0672564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6740" xr2:uid="{4ADB7A3A-F384-487C-8844-9ABDB16DDC2E}"/>
   </bookViews>
@@ -26,19 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="223">
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キーワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ふりがな</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
   <si>
     <t>東京</t>
     <rPh sb="0" eb="2">
@@ -58,13 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字数</t>
-    <rPh sb="0" eb="3">
-      <t>モジスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>とうきょう</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -661,80 +642,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (2,'日本','にほん','nihon',3);</t>
-    <rPh sb="72" eb="74">
-      <t>ニホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (3,'東京','とうきょう','toukyo',5);</t>
-    <rPh sb="72" eb="74">
-      <t>トウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (4,'京都','きょうと','kyouto',4);</t>
-    <rPh sb="72" eb="74">
-      <t>キョウト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (5,'大分','おおいた','ooita',5);</t>
-    <rPh sb="72" eb="74">
-      <t>オオイタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (6,'千葉','ちば','tiba',2);</t>
-    <rPh sb="72" eb="74">
-      <t>チバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (7,'滋賀','しが','siga',2);</t>
-    <rPh sb="72" eb="74">
-      <t>シガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (8,'佐賀','さが','saga',2);</t>
-    <rPh sb="72" eb="74">
-      <t>サガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (9,'岐阜','ぎふ','gifu',2);</t>
-    <rPh sb="72" eb="74">
-      <t>ギフ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (10,'福岡','ふくおか','fukuoka',4);</t>
-    <rPh sb="73" eb="75">
-      <t>フクオカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (11,'群馬','ぐんま','gunnma',3);</t>
-    <rPh sb="73" eb="75">
-      <t>グンマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (12,'ペンライト','ぺんらいと','penraito',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>kirabosi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -755,85 +662,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (13,'アジフライ','あじふらい','ajifurai',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (14,'四天王','してんのう','sitennou',5);</t>
-    <rPh sb="73" eb="76">
-      <t>シテンノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (15,'天地人','てんちじん','tentijin',5);</t>
-    <rPh sb="73" eb="76">
-      <t>テンチジン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (16,'伏魔殿','ふくまでん','fukumaden',5);</t>
-    <rPh sb="73" eb="76">
-      <t>フクマデン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (17,'大御所','おおごしょ','oogsyo',5);</t>
-    <rPh sb="73" eb="76">
-      <t>オオゴショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (18,'金字塔','きんじとう','kinjitou',5);</t>
-    <rPh sb="73" eb="76">
-      <t>キンジトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (19,'十八番','おはこ','ohako',3);</t>
-    <rPh sb="73" eb="76">
-      <t>オハコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (20,'修羅場','しゅらば','syuraba',4);</t>
-    <rPh sb="73" eb="76">
-      <t>シュラバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (21,'風物詩','ふうぶつし','fuubutusi',3);</t>
-    <rPh sb="73" eb="76">
-      <t>フウブツシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (22,'天使','てんし','tensi',3);</t>
-    <rPh sb="73" eb="74">
-      <t>テン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オムライス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>omuraisu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (24,'阿修羅','あしゅら','asyura',4);</t>
-    <rPh sb="73" eb="76">
-      <t>アシュラ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -852,13 +685,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (23,'暴風雨','ぼうふうう','bouhuu',5);</t>
-    <rPh sb="73" eb="76">
-      <t>ボウフウウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>狙撃手</t>
     <rPh sb="0" eb="3">
       <t>ソゲキシュ</t>
@@ -874,100 +700,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (25,'狙撃手','そげきしゅ','sogekisyu',3);</t>
-    <rPh sb="73" eb="76">
-      <t>ソゲキシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (26,'天王山','てんのうざん','tennouzan',5);</t>
-    <rPh sb="73" eb="76">
-      <t>テンノウザン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (27,'雪月花','せつげつか','setugetuka',5);</t>
-    <rPh sb="73" eb="76">
-      <t>セツゲツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tennouzan</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (28,'','オムライス','omuraisu',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (29,'綺羅星','きらぼし','kirabosi',3);</t>
-    <rPh sb="73" eb="76">
-      <t>キラボシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (30,'蜃気楼','しんきろう','sinkirou',5);</t>
-    <rPh sb="73" eb="76">
-      <t>シンキロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (31,'目標','もくひょう','mokuhyou',3);</t>
-    <rPh sb="73" eb="75">
-      <t>モクヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (32,'摩天楼','まてんろう','matenrou',5);</t>
-    <rPh sb="73" eb="76">
-      <t>マテンロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (33,'風物詩','ふうぶつし','fuubutusi',5);</t>
-    <rPh sb="73" eb="76">
-      <t>フウブツシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>yaoyorozu</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (34,'八百万','やおよろず','yaoyozu',5);</t>
-    <rPh sb="73" eb="76">
-      <t>ヤオヨロズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>noutenki</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (35,'能天気','のうてんき','nouten',3);</t>
-    <rPh sb="73" eb="76">
-      <t>ノウテンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>saikopasu</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (36,'サイコパス','さいこぱす','saikopasu',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1068,65 +816,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (37,'ハンバーグ','はんばーぐ','hanba-gu',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (38,'アイス','あいす','aisu',3);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (39,'エビフライ','えびふらい','ebifurai',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (40,'ツナサンド','つなさんど','tunasando',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (41,'モンブラン','もんぶらん','monburan',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (42,'ロースかつ','ろーすかつ','ro-sukatu',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (43,'チキンカツ','ちきんかつ','tikinkatu',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (44,'ドラゴン','どらごん','doragon',4);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (45,'ピカチュウ','ぴかちゅう','pikatyuu',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (46,'親子丼','おやこどん','oyakodon',5);</t>
-    <rPh sb="73" eb="76">
-      <t>オヤコドン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (47,'カレーパン','かれーぱん','kare-pan',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (48,'ズワイガニ','ずわいがに','zuwaigani',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (49,'チャーハン','ちゃーはん','tya-han',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (50,'ナポリタン','なぽりたん','naporitan',5);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tya-han</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1135,13 +824,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (51,'得手不得手','えてふえて','etehuete',5);</t>
-    <rPh sb="73" eb="75">
-      <t>エテ</t>
-    </rPh>
-    <rPh sb="75" eb="78">
-      <t>フエテ</t>
-    </rPh>
+    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (2,'日本','にほん','nihon',3);</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1508,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FD5E92-8A6A-409C-9C76-D8C669403ED8}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1522,22 +1205,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>105</v>
-      </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1545,20 +1228,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E2">
         <f>LEN(C2)</f>
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>129</v>
+      <c r="F2" t="str">
+        <f>"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (1,'日本','にほん','nihon',3);</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1566,20 +1250,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E53" si="0">LEN(C3)</f>
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>130</v>
+        <f t="shared" ref="E3:E51" si="0">LEN(C3)</f>
+        <v>5</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F51" si="1">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (2,'東京','とうきょう','toukyou',5);</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1587,20 +1272,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>131</v>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (3,'京都','きょうと','kyouto',4);</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1608,20 +1294,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>132</v>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (4,'大分','おおいた','ooita',4);</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1629,20 +1316,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>133</v>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (5,'千葉','ちば','tiba',2);</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1650,20 +1338,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F7" t="s">
-        <v>134</v>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (6,'滋賀','しが','siga',2);</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1671,20 +1360,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F8" t="s">
-        <v>135</v>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (7,'佐賀','さが','saga',2);</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1692,20 +1382,21 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F9" t="s">
-        <v>136</v>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (8,'岐阜','ぎふ','gifu',2);</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1713,20 +1404,21 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F10" t="s">
-        <v>137</v>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (9,'福岡','ふくおか','fukuoka',4);</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1734,20 +1426,21 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F11" t="s">
-        <v>138</v>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (10,'群馬','ぐんま','gunma',3);</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1755,20 +1448,21 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F12" t="s">
-        <v>139</v>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (11,'ペンライト','ぺんらいと','penraito',5);</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1776,20 +1470,21 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F13" t="s">
-        <v>145</v>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (12,'アジフライ','あじふらい','ajifurai',5);</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1797,20 +1492,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F14" t="s">
-        <v>146</v>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (13,'四天王','してんのう','sitennou',5);</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1818,20 +1514,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F15" t="s">
-        <v>147</v>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (14,'天地人','てんちじん','tentijin',5);</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1839,20 +1536,21 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F16" t="s">
-        <v>148</v>
+      <c r="F16" t="str">
+        <f>"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A16&amp;",'"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;D16&amp;"',"&amp;E16&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (15,'伏魔殿','ふくまでん','fukumaden',5);</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1860,20 +1558,21 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F17" t="s">
-        <v>149</v>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (16,'大御所','おおごしょ','oogosyo',5);</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1881,20 +1580,21 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F18" t="s">
-        <v>150</v>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (17,'金字塔','きんじとう','kinjitou',5);</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1902,20 +1602,21 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F19" t="s">
-        <v>151</v>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (18,'十八番','おはこ','ohako',3);</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1923,20 +1624,21 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F20" t="s">
-        <v>152</v>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (19,'修羅場','しゅらば','syuraba',4);</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1944,20 +1646,21 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F21" t="s">
-        <v>153</v>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (20,'風物詩','ふうぶつし','huubutusi',5);</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1965,20 +1668,21 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F22" t="s">
-        <v>154</v>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (21,'天使','てんし','tensi',3);</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1986,20 +1690,21 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F23" t="s">
-        <v>161</v>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (22,'暴風雨','ぼうふうう','bouhuu',5);</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2007,20 +1712,21 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F24" t="s">
-        <v>157</v>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (23,'阿修羅','あしゅら','asyura',4);</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2028,20 +1734,21 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F25" t="s">
-        <v>165</v>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (24,'狙撃手','そげきしゅ','sogekisyu',5);</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2049,20 +1756,21 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F26" t="s">
-        <v>166</v>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (25,'天王山','てんのうざん','tennouzan',6);</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2070,20 +1778,21 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F27" t="s">
-        <v>167</v>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (26,'雪月花','せつげつか','setugetuka',5);</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2091,20 +1800,21 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F28" t="s">
-        <v>169</v>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (27,'オムライス','オムライス','omuraisu',5);</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2112,20 +1822,21 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F29" t="s">
-        <v>170</v>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (28,'綺羅星','きらぼし','kirabosi',4);</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2133,20 +1844,21 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F30" t="s">
-        <v>171</v>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (29,'蜃気楼','しんきろう','sinkirou',5);</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2154,20 +1866,21 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F31" t="s">
-        <v>172</v>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (30,'目標','もくひょう','mokuhyou',5);</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2175,20 +1888,21 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F32" t="s">
-        <v>173</v>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (31,'摩天楼','まてんろう','matenrou',5);</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2196,20 +1910,21 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F33" t="s">
-        <v>174</v>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (32,'風物詩','ふうぶつし','hubutusi',5);</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2217,20 +1932,21 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F34" t="s">
-        <v>176</v>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (33,'八百万','やおよろず','yaoyorozu',5);</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2238,20 +1954,21 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F35" t="s">
-        <v>178</v>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (34,'能天気','のうてんき','noutenki',5);</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2259,20 +1976,21 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F36" t="s">
-        <v>180</v>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (35,'サイコパス','さいこぱす','saikopasu',5);</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2280,20 +1998,21 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F37" t="s">
-        <v>206</v>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (36,'ハンバーグ','ハンバーグ','hanba-gu',5);</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2301,20 +2020,21 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F38" t="s">
-        <v>207</v>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (37,'アイス','あいす','aisu',3);</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2322,20 +2042,21 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F39" t="s">
-        <v>208</v>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (38,'エビフライ','えびふらい','ebifurai',5);</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2343,20 +2064,21 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F40" t="s">
-        <v>209</v>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (39,'ツナサンド','つなさんど','tunasanndo',5);</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2364,20 +2086,21 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F41" t="s">
-        <v>210</v>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (40,'モンブラン','もんぶらん','monburan',5);</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2385,20 +2108,21 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F42" t="s">
-        <v>211</v>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (41,'ロースカツ','ろーすかつ','ro-sukatu',5);</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2406,20 +2130,21 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F43" t="s">
-        <v>212</v>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (42,'チキンカツ','ちきんかつ','tikinkatu',5);</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2427,20 +2152,21 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F44" t="s">
-        <v>213</v>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (43,'ドラゴン','どらごん','doragon',4);</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2448,20 +2174,21 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F45" t="s">
-        <v>214</v>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (44,'ピカチュウ','ぴかちゅう','pikatyuu',5);</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2469,20 +2196,21 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F46" t="s">
-        <v>215</v>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (45,'親子丼','おやこどん','oyakodon',5);</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2490,20 +2218,21 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F47" t="s">
-        <v>216</v>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (46,'カレーパン','かれーぱん','kare-pan',5);</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2511,20 +2240,21 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F48" t="s">
-        <v>217</v>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (47,'ズワイガニ','ずわいがに','zuwaigani',5);</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2532,20 +2262,21 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F49" t="s">
-        <v>218</v>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (48,'チャーハン','ちゃーはん','tya-han',5);</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2553,20 +2284,21 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F50" t="s">
-        <v>219</v>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (49,'ナポリタン','なぽりたん','naporitan',5);</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2574,20 +2306,21 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F51" t="s">
-        <v>222</v>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (50,'得手不得手','えてふえて','etehuete',5);</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2849,10 +2582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70DB0F-63B9-4E3B-A241-4C0F3245D929}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2864,77 +2597,81 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <f>LEN(C2)</f>
         <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3">
-        <f>LEN(C3)</f>
+        <f t="shared" ref="E3:E66" si="0">LEN(C3)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="0">LEN(C4)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -2943,13 +2680,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -2958,22 +2695,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -2982,7 +2713,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -2991,7 +2722,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -3000,7 +2731,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -3008,9 +2739,6 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>10</v>
-      </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3342,13 +3070,13 @@
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E67">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E67:E117" si="1">LEN(C67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E68">
-        <f t="shared" ref="E68:E118" si="1">LEN(C68)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3642,12 +3370,6 @@
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E118">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/キーワードリスト.xlsx
+++ b/キーワードリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239008\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3087EBA-7EAB-439A-8E6B-2894F0672564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD259FC5-DAD2-4D66-BB5D-E5381BFAA33F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6740" xr2:uid="{4ADB7A3A-F384-487C-8844-9ABDB16DDC2E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="166">
   <si>
     <t>東京</t>
     <rPh sb="0" eb="2">
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>にほん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>とうきょう</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -79,10 +75,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ちば</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>滋賀</t>
     <rPh sb="0" eb="2">
       <t>シガ</t>
@@ -237,20 +229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>天王山</t>
-    <rPh sb="0" eb="2">
-      <t>テンノウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>てんのうざん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>雪月花</t>
     <rPh sb="0" eb="3">
       <t>セツゲツカ</t>
@@ -346,17 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>天使</t>
-    <rPh sb="0" eb="2">
-      <t>テンシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>てんし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイコパス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -374,10 +341,6 @@
   </si>
   <si>
     <t>ぺんらいと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アジフライ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -630,14 +593,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tensi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>asyura</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>setugetuka</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -700,10 +655,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tennouzan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>yaoyorozu</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -716,18 +667,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あいす</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aisu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ebifurai</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -825,6 +764,45 @@
   </si>
   <si>
     <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (2,'日本','にほん','nihon',3);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にほん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堕天使</t>
+    <rPh sb="0" eb="3">
+      <t>ダテンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だてんし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datensi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジフライ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ayura</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランドセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らんどせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>randoseru</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1191,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FD5E92-8A6A-409C-9C76-D8C669403ED8}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1205,22 +1183,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1228,21 +1206,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B2))</f>
+        <v>ちば</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2">
         <f>LEN(C2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="str">
-        <f>"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (1,'日本','にほん','nihon',3);</v>
+        <f t="shared" ref="F2:F50" si="0">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (1,'千葉','ちば','tiba',2);</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1250,21 +1229,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E51" si="0">LEN(C3)</f>
-        <v>5</v>
+        <f t="shared" ref="E3:E50" si="1">LEN(C3)</f>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F51" si="1">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (2,'東京','とうきょう','toukyou',5);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (2,'佐賀','さが','saga',2);</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1272,21 +1251,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (3,'京都','きょうと','kyouto',4);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (3,'岐阜','ぎふ','gifu',2);</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1294,21 +1273,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (4,'大分','おおいた','ooita',4);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (4,'滋賀','しが','siga',2);</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1316,21 +1295,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (5,'千葉','ちば','tiba',2);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (5,'日本','にほん','nihon',3);</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1338,21 +1317,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (6,'滋賀','しが','siga',2);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (6,'群馬','ぐんま','gunma',3);</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1360,21 +1339,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (7,'佐賀','さが','saga',2);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (7,'十八番','おはこ','ohako',3);</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1382,21 +1361,21 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (8,'岐阜','ぎふ','gifu',2);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (8,'京都','きょうと','kyouto',4);</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1404,20 +1383,20 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (9,'福岡','ふくおか','fukuoka',4);</v>
       </c>
     </row>
@@ -1426,21 +1405,21 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (10,'群馬','ぐんま','gunma',3);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (10,'大分','おおいた','ooita',4);</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1448,21 +1427,21 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (11,'ペンライト','ぺんらいと','penraito',5);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (11,'堕天使','だてんし','datensi',4);</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1470,21 +1449,21 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>113</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (12,'アジフライ','あじふらい','ajifurai',5);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (12,'修羅場','しゅらば','syuraba',4);</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1492,21 +1471,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (13,'四天王','してんのう','sitennou',5);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (13,'阿修羅','あしゅら','ayura',4);</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1514,20 +1493,20 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (14,'天地人','てんちじん','tentijin',5);</v>
       </c>
     </row>
@@ -1536,16 +1515,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F16" t="str">
@@ -1558,20 +1537,20 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (16,'大御所','おおごしょ','oogosyo',5);</v>
       </c>
     </row>
@@ -1580,20 +1559,20 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (17,'金字塔','きんじとう','kinjitou',5);</v>
       </c>
     </row>
@@ -1602,21 +1581,21 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (18,'十八番','おはこ','ohako',3);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (18,'四天王','してんのう','sitennou',5);</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1624,21 +1603,21 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (19,'修羅場','しゅらば','syuraba',4);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (19,'東京','とうきょう','toukyou',5);</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1646,20 +1625,20 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (20,'風物詩','ふうぶつし','huubutusi',5);</v>
       </c>
     </row>
@@ -1668,21 +1647,21 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (21,'天使','てんし','tensi',3);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (21,'ペンライト','ぺんらいと','penraito',5);</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1690,20 +1669,20 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (22,'暴風雨','ぼうふうう','bouhuu',5);</v>
       </c>
     </row>
@@ -1712,21 +1691,21 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (23,'阿修羅','あしゅら','asyura',4);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (23,'アジフライ','あじふらい','ajifurai',5);</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1734,20 +1713,20 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (24,'狙撃手','そげきしゅ','sogekisyu',5);</v>
       </c>
     </row>
@@ -1756,21 +1735,21 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (25,'天王山','てんのうざん','tennouzan',6);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (25,'得手不得手','えてふえて','etehuete',5);</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1778,20 +1757,20 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (26,'雪月花','せつげつか','setugetuka',5);</v>
       </c>
     </row>
@@ -1800,20 +1779,20 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (27,'オムライス','オムライス','omuraisu',5);</v>
       </c>
     </row>
@@ -1822,20 +1801,20 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (28,'綺羅星','きらぼし','kirabosi',4);</v>
       </c>
     </row>
@@ -1844,20 +1823,20 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (29,'蜃気楼','しんきろう','sinkirou',5);</v>
       </c>
     </row>
@@ -1866,20 +1845,20 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (30,'目標','もくひょう','mokuhyou',5);</v>
       </c>
     </row>
@@ -1888,20 +1867,20 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (31,'摩天楼','まてんろう','matenrou',5);</v>
       </c>
     </row>
@@ -1910,20 +1889,20 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (32,'風物詩','ふうぶつし','hubutusi',5);</v>
       </c>
     </row>
@@ -1932,20 +1911,20 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (33,'八百万','やおよろず','yaoyorozu',5);</v>
       </c>
     </row>
@@ -1954,20 +1933,20 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (34,'能天気','のうてんき','noutenki',5);</v>
       </c>
     </row>
@@ -1976,20 +1955,20 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (35,'サイコパス','さいこぱす','saikopasu',5);</v>
       </c>
     </row>
@@ -1998,20 +1977,20 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (36,'ハンバーグ','ハンバーグ','hanba-gu',5);</v>
       </c>
     </row>
@@ -2020,21 +1999,21 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (37,'アイス','あいす','aisu',3);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (37,'ランドセル','らんどせる','randoseru',5);</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2042,20 +2021,20 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (38,'エビフライ','えびふらい','ebifurai',5);</v>
       </c>
     </row>
@@ -2064,20 +2043,20 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (39,'ツナサンド','つなさんど','tunasanndo',5);</v>
       </c>
     </row>
@@ -2086,20 +2065,20 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (40,'モンブラン','もんぶらん','monburan',5);</v>
       </c>
     </row>
@@ -2108,20 +2087,20 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (41,'ロースカツ','ろーすかつ','ro-sukatu',5);</v>
       </c>
     </row>
@@ -2130,20 +2109,20 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (42,'チキンカツ','ちきんかつ','tikinkatu',5);</v>
       </c>
     </row>
@@ -2152,20 +2131,20 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (43,'ドラゴン','どらごん','doragon',4);</v>
       </c>
     </row>
@@ -2174,20 +2153,20 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (44,'ピカチュウ','ぴかちゅう','pikatyuu',5);</v>
       </c>
     </row>
@@ -2196,20 +2175,20 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (45,'親子丼','おやこどん','oyakodon',5);</v>
       </c>
     </row>
@@ -2218,20 +2197,20 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (46,'カレーパン','かれーぱん','kare-pan',5);</v>
       </c>
     </row>
@@ -2240,20 +2219,20 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (47,'ズワイガニ','ずわいがに','zuwaigani',5);</v>
       </c>
     </row>
@@ -2262,20 +2241,20 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (48,'チャーハン','ちゃーはん','tya-han',5);</v>
       </c>
     </row>
@@ -2284,43 +2263,26 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (49,'ナポリタン','なぽりたん','naporitan',5);</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (50,'得手不得手','えてふえて','etehuete',5);</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2597,22 +2559,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2620,17 +2582,17 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E2">
         <f>LEN(C2)</f>
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2638,10 +2600,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">LEN(C3)</f>
@@ -2653,10 +2615,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -2668,10 +2630,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -2683,10 +2645,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>

--- a/キーワードリスト.xlsx
+++ b/キーワードリスト.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239008\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD259FC5-DAD2-4D66-BB5D-E5381BFAA33F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C88529-1231-4858-AB6A-D96382FD3722}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6740" xr2:uid="{4ADB7A3A-F384-487C-8844-9ABDB16DDC2E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6740" activeTab="6" xr2:uid="{4ADB7A3A-F384-487C-8844-9ABDB16DDC2E}"/>
   </bookViews>
   <sheets>
-    <sheet name="５文字" sheetId="1" r:id="rId1"/>
-    <sheet name="6文字" sheetId="2" r:id="rId2"/>
+    <sheet name="例文" sheetId="1" r:id="rId1"/>
+    <sheet name="２文字" sheetId="3" r:id="rId2"/>
+    <sheet name="３文字" sheetId="4" r:id="rId3"/>
+    <sheet name="４文字" sheetId="5" r:id="rId4"/>
+    <sheet name="5文字" sheetId="8" r:id="rId5"/>
+    <sheet name="6文字" sheetId="2" r:id="rId6"/>
+    <sheet name="7文字" sheetId="9" r:id="rId7"/>
+    <sheet name="８文字" sheetId="10" r:id="rId8"/>
+    <sheet name="９文字" sheetId="11" r:id="rId9"/>
+    <sheet name="10文字" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="269">
   <si>
     <t>東京</t>
     <rPh sb="0" eb="2">
@@ -42,10 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>とうきょう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大分</t>
     <rPh sb="0" eb="2">
       <t>オオイタ</t>
@@ -53,10 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>おおいた</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>京都</t>
     <rPh sb="0" eb="2">
       <t>キョウト</t>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>きょうと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>千葉</t>
     <rPh sb="0" eb="2">
       <t>チバ</t>
@@ -82,10 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>しが</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>佐賀</t>
     <rPh sb="0" eb="2">
       <t>サガ</t>
@@ -93,10 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>さが</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>岐阜</t>
     <rPh sb="0" eb="2">
       <t>ギフ</t>
@@ -104,10 +92,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ぎふ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>福岡</t>
     <rPh sb="0" eb="2">
       <t>フクオカ</t>
@@ -115,10 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ふくおか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>群馬</t>
     <rPh sb="0" eb="2">
       <t>グンマ</t>
@@ -126,10 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ぐんま</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>四天王</t>
     <rPh sb="0" eb="3">
       <t>シテンノウ</t>
@@ -137,10 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>してんのう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>天地人</t>
     <rPh sb="0" eb="3">
       <t>テンチジン</t>
@@ -148,10 +120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>てんちじん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>伏魔殿</t>
     <rPh sb="0" eb="3">
       <t>フクマデン</t>
@@ -159,10 +127,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ふくまでん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大御所</t>
     <rPh sb="0" eb="3">
       <t>オオゴショ</t>
@@ -170,10 +134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>おおごしょ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>金字塔</t>
     <rPh sb="0" eb="3">
       <t>キンジトウ</t>
@@ -181,10 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>きんじとう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>十八番</t>
     <rPh sb="0" eb="3">
       <t>オハコ</t>
@@ -192,10 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>おはこ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>修羅場</t>
     <rPh sb="0" eb="3">
       <t>シュラバ</t>
@@ -203,10 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>しゅらば</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>風物詩</t>
     <rPh sb="0" eb="3">
       <t>フウブツシ</t>
@@ -225,10 +173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あしゅら</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>雪月花</t>
     <rPh sb="0" eb="3">
       <t>セツゲツカ</t>
@@ -240,17 +184,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>綺羅星</t>
-    <rPh sb="0" eb="3">
-      <t>キラボシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>きらぼし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>蜃気楼</t>
     <rPh sb="0" eb="3">
       <t>シンキロウ</t>
@@ -438,10 +371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>しんよこはま</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新大阪</t>
     <rPh sb="0" eb="1">
       <t>シン</t>
@@ -452,10 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>しんおおさか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>青信号</t>
     <rPh sb="0" eb="3">
       <t>アオシンゴウ</t>
@@ -463,10 +388,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あおしんごう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>悪天候</t>
     <rPh sb="0" eb="3">
       <t>アクテンコウ</t>
@@ -474,10 +395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あくてんこう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>厚化粧</t>
     <rPh sb="0" eb="3">
       <t>アツゲショウ</t>
@@ -485,10 +402,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あつげしょう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コマンド</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -594,10 +507,6 @@
   </si>
   <si>
     <t>setugetuka</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kirabosi</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -632,10 +541,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ぼうふうう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bouhuu</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -743,31 +648,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドラゴン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どらごん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>doragon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tya-han</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>kare-pan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INSERT INTO word ('id',`keyword`,'furigana','roma','charNo') VALUES (2,'日本','にほん','nihon',3);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>にほん</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -778,10 +663,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>だてんし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>datensi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -803,6 +684,632 @@
   </si>
   <si>
     <t>randoseru</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西遊記</t>
+    <rPh sb="0" eb="3">
+      <t>サイユウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいゆうき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>saiyuuki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羅針盤</t>
+    <rPh sb="0" eb="3">
+      <t>ラシンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>らしんばん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rasinban</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンフォギア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sinyokohama</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼうふうう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sinfogia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sinoosaka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aosingou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>akutenkou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atugesyou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョコレート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイスクリーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいすくりーむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aisukuri-mu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tyokore-to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遺伝子工学</t>
+    <rPh sb="0" eb="5">
+      <t>イデンシコウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idensikougaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>因数分解</t>
+    <rPh sb="0" eb="4">
+      <t>インスウブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insuubunkai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルファベット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あるふぁべっと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arufabeltuto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全地帯</t>
+    <rPh sb="0" eb="4">
+      <t>アンゼンチタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>anzentitai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杏仁豆腐</t>
+    <rPh sb="0" eb="4">
+      <t>アンニンドウフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんにんどうふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>annindouhu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>育児休暇</t>
+    <rPh sb="0" eb="4">
+      <t>イクジキュウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いくじきゅうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ikujikyuka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以心伝心</t>
+    <rPh sb="0" eb="4">
+      <t>イシンデンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いしんでんしん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isindensin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エキシビション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えきしびしょん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ekisibisyon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠隔操作</t>
+    <rPh sb="0" eb="4">
+      <t>エンカクソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんかくそうさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enkakusousa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円周率</t>
+    <rPh sb="0" eb="3">
+      <t>エンシュウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えんしゅうりつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ensyuritu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横断歩道</t>
+    <rPh sb="0" eb="4">
+      <t>オウダンホドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おうだんほどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oudanhodou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>懐中電灯</t>
+    <rPh sb="0" eb="4">
+      <t>カイチュウデントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kaityuudentou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エメラルドグリーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えめらるどぐりーん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emerarudoguri-n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロシアンルーレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろしあんるーれっと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rosianru-reltuto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全力投球</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンリョクトウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zenryokutoukyu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全性</t>
+    <rPh sb="0" eb="3">
+      <t>アンゼンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>anzensei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運動靴</t>
+    <rPh sb="0" eb="3">
+      <t>ウンドウグツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>undougutu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エントランス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entoransu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音楽家</t>
+    <rPh sb="0" eb="3">
+      <t>オンガクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おんがくか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ongakuka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海水浴</t>
+    <rPh sb="0" eb="3">
+      <t>カイスイヨク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kaisuiyoku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢和辞典</t>
+    <rPh sb="0" eb="4">
+      <t>カンワジテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kanwajiten</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外交官</t>
+    <rPh sb="0" eb="3">
+      <t>ガイコウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gaikoukan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガイドライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいどらいん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gaidorain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希少価値</t>
+    <rPh sb="0" eb="4">
+      <t>キショウカチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kisyoukati</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゃんぴんぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kyanpingu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キングサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きんぐさいず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kingusaizu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最上位</t>
+    <rPh sb="0" eb="3">
+      <t>サイジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいじょうい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>saizyoui</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裁判所</t>
+    <rPh sb="0" eb="3">
+      <t>サイバンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>saibansyo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業服</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sagyouhuku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜吹雪</t>
+    <rPh sb="0" eb="1">
+      <t>サクラ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>フブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくらふぶき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sakurahubuki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サラブレッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらぶれっど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sarabureltudo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンドイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんどいっち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sanndoiltuti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんぷりんぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sanpuringu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海外ドラマ</t>
+    <rPh sb="0" eb="2">
+      <t>カイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいがいどらま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kaigaidorama</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウンセリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かうんせりんぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kaunseringu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウントダウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かうんとだうん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kauntodaun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギフトショップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぎふとしょっぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gifutosyoltupu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クランクアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くらんくあっぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kurankualtupu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレッシェンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレシェンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kuresyendo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グランドピアノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐらんどぴあの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gurandopiano</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原稿用紙</t>
+    <rPh sb="0" eb="4">
+      <t>ゲンコウヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げんこうようし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genkouyousi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原材料</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げんざいりょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genzairyou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豪速球</t>
+    <rPh sb="0" eb="1">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ソッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごうそっきゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gousoltukyuu</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1169,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FD5E92-8A6A-409C-9C76-D8C669403ED8}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1183,67 +1690,51 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="str">
-        <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B2))</f>
-        <v>ちば</v>
-      </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <f>LEN(C2)</f>
-        <v>2</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F50" si="0">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (1,'千葉','ちば','tiba',2);</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C21" si="0">_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B3))</f>
+        <v>さが</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E50" si="1">LEN(C3)</f>
         <v>2</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (2,'佐賀','さが','saga',2);</v>
+        <f t="shared" ref="F3:F50" si="2">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'佐賀','さが','saga',2);</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1251,20 +1742,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>ぎふ</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (3,'岐阜','ぎふ','gifu',2);</v>
       </c>
     </row>
@@ -1273,20 +1765,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>しが</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (4,'滋賀','しが','siga',2);</v>
       </c>
     </row>
@@ -1297,18 +1790,19 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>157</v>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>にほん</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (5,'日本','にほん','nihon',3);</v>
       </c>
     </row>
@@ -1317,20 +1811,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>ぐんま</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (6,'群馬','ぐんま','gunma',3);</v>
       </c>
     </row>
@@ -1339,20 +1834,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>おはこ</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (7,'十八番','おはこ','ohako',3);</v>
       </c>
     </row>
@@ -1361,20 +1857,21 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>きょうと</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (8,'京都','きょうと','kyouto',4);</v>
       </c>
     </row>
@@ -1383,20 +1880,21 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>ふくおか</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (9,'福岡','ふくおか','fukuoka',4);</v>
       </c>
     </row>
@@ -1405,20 +1903,21 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>おおいた</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (10,'大分','おおいた','ooita',4);</v>
       </c>
     </row>
@@ -1427,20 +1926,21 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" t="s">
-        <v>159</v>
+        <v>128</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>だてんし</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (11,'堕天使','だてんし','datensi',4);</v>
       </c>
     </row>
@@ -1449,20 +1949,21 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>しゅらば</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (12,'修羅場','しゅらば','syuraba',4);</v>
       </c>
     </row>
@@ -1471,20 +1972,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>あしゅら</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (13,'阿修羅','あしゅら','ayura',4);</v>
       </c>
     </row>
@@ -1493,20 +1995,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>てんちじん</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (14,'天地人','てんちじん','tentijin',5);</v>
       </c>
     </row>
@@ -1515,13 +2018,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="C16" t="str">
+        <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B16))</f>
+        <v>ふくまでん</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
@@ -1537,20 +2041,21 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>おおごしょ</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (16,'大御所','おおごしょ','oogosyo',5);</v>
       </c>
     </row>
@@ -1559,20 +2064,21 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>きんじとう</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (17,'金字塔','きんじとう','kinjitou',5);</v>
       </c>
     </row>
@@ -1581,20 +2087,21 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>してんのう</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (18,'四天王','してんのう','sitennou',5);</v>
       </c>
     </row>
@@ -1605,18 +2112,19 @@
       <c r="B20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
-        <v>2</v>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>とうきょう</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (19,'東京','とうきょう','toukyou',5);</v>
       </c>
     </row>
@@ -1625,20 +2133,21 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>ふうぶつし</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (20,'風物詩','ふうぶつし','huubutusi',5);</v>
       </c>
     </row>
@@ -1647,20 +2156,20 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (21,'ペンライト','ぺんらいと','penraito',5);</v>
       </c>
     </row>
@@ -1669,20 +2178,20 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (22,'暴風雨','ぼうふうう','bouhuu',5);</v>
       </c>
     </row>
@@ -1691,20 +2200,20 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (23,'アジフライ','あじふらい','ajifurai',5);</v>
       </c>
     </row>
@@ -1713,20 +2222,20 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (24,'狙撃手','そげきしゅ','sogekisyu',5);</v>
       </c>
     </row>
@@ -1735,20 +2244,20 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (25,'得手不得手','えてふえて','etehuete',5);</v>
       </c>
     </row>
@@ -1757,20 +2266,20 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (26,'雪月花','せつげつか','setugetuka',5);</v>
       </c>
     </row>
@@ -1779,20 +2288,20 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (27,'オムライス','オムライス','omuraisu',5);</v>
       </c>
     </row>
@@ -1801,21 +2310,21 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (28,'綺羅星','きらぼし','kirabosi',4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (28,'羅針盤','らしんばん','rasinban',5);</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1823,20 +2332,20 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (29,'蜃気楼','しんきろう','sinkirou',5);</v>
       </c>
     </row>
@@ -1845,20 +2354,20 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (30,'目標','もくひょう','mokuhyou',5);</v>
       </c>
     </row>
@@ -1867,20 +2376,20 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (31,'摩天楼','まてんろう','matenrou',5);</v>
       </c>
     </row>
@@ -1889,20 +2398,20 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (32,'風物詩','ふうぶつし','hubutusi',5);</v>
       </c>
     </row>
@@ -1911,20 +2420,20 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (33,'八百万','やおよろず','yaoyorozu',5);</v>
       </c>
     </row>
@@ -1933,20 +2442,20 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (34,'能天気','のうてんき','noutenki',5);</v>
       </c>
     </row>
@@ -1955,20 +2464,20 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (35,'サイコパス','さいこぱす','saikopasu',5);</v>
       </c>
     </row>
@@ -1977,20 +2486,20 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (36,'ハンバーグ','ハンバーグ','hanba-gu',5);</v>
       </c>
     </row>
@@ -1999,20 +2508,20 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (37,'ランドセル','らんどせる','randoseru',5);</v>
       </c>
     </row>
@@ -2021,20 +2530,20 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (38,'エビフライ','えびふらい','ebifurai',5);</v>
       </c>
     </row>
@@ -2043,20 +2552,20 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (39,'ツナサンド','つなさんど','tunasanndo',5);</v>
       </c>
     </row>
@@ -2065,20 +2574,20 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (40,'モンブラン','もんぶらん','monburan',5);</v>
       </c>
     </row>
@@ -2087,20 +2596,20 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (41,'ロースカツ','ろーすかつ','ro-sukatu',5);</v>
       </c>
     </row>
@@ -2109,20 +2618,20 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (42,'チキンカツ','ちきんかつ','tikinkatu',5);</v>
       </c>
     </row>
@@ -2131,21 +2640,21 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (43,'ドラゴン','どらごん','doragon',4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (43,'西遊記','さいゆうき','saiyuuki',5);</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2153,20 +2662,20 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (44,'ピカチュウ','ぴかちゅう','pikatyuu',5);</v>
       </c>
     </row>
@@ -2175,20 +2684,20 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (45,'親子丼','おやこどん','oyakodon',5);</v>
       </c>
     </row>
@@ -2197,20 +2706,20 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (46,'カレーパン','かれーぱん','kare-pan',5);</v>
       </c>
     </row>
@@ -2219,20 +2728,20 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (47,'ズワイガニ','ずわいがに','zuwaigani',5);</v>
       </c>
     </row>
@@ -2241,20 +2750,20 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (48,'チャーハン','ちゃーはん','tya-han',5);</v>
       </c>
     </row>
@@ -2263,20 +2772,20 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (49,'ナポリタン','なぽりたん','naporitan',5);</v>
       </c>
     </row>
@@ -2542,12 +3051,1486 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1CBFAD-8C40-4E0F-8F99-0BDDBDE29EF4}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B2))</f>
+        <v>ぜんりょくとうきゅう</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2">
+        <f>LEN(C2)</f>
+        <v>10</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (1,'全力投球','ぜんりょくとうきゅう','zenryokutoukyu',10);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B3))</f>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="1">LEN(C3)</f>
+        <v>25</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F4" si="2">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (2,'','ERROR: 文字列 text を指定してください','saga',25);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (3,'','ERROR: 文字列 text を指定してください','gifu',25);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94BC666-D75C-4C5D-A01D-BA7F455D6D54}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B2))</f>
+        <v>ちば</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2">
+        <f>LEN(C2)</f>
+        <v>2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (1,'千葉','ちば','tiba',2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B3))</f>
+        <v>さが</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="1">LEN(C3)</f>
+        <v>2</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F4" si="2">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (2,'佐賀','さが','saga',2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>ぎふ</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (3,'岐阜','ぎふ','gifu',2);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607F909B-E3BE-46F7-B728-17C4AD8BEB01}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C4" si="0">_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B2))</f>
+        <v>にほん</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2">
+        <f>LEN(C2)</f>
+        <v>3</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (1,'日本','にほん','nihon',3);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>ぐんま</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="1">LEN(C3)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F4" si="2">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (2,'群馬','ぐんま','gunma',3);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>おはこ</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (3,'十八番','おはこ','ohako',3);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462517E4-F4B1-4686-9EBA-10A4F7E58D8A}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C6" si="0">_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B2))</f>
+        <v>ふくおか</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E6" si="1">LEN(C2)</f>
+        <v>4</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (1,'福岡','ふくおか','fukuoka',4);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>おおいた</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F6" si="2">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (2,'大分','おおいた','ooita',4);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>だてんし</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (3,'堕天使','だてんし','datensi',4);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>しゅらば</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (4,'修羅場','しゅらば','syuraba',4);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>あしゅら</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (5,'阿修羅','あしゅら','ayura',4);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC597828-B979-490D-8583-47517F8709D9}">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C13" si="0">_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B2))</f>
+        <v>てんちじん</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E42" si="1">LEN(C2)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (1,'天地人','てんちじん','tentijin',5);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B3))</f>
+        <v>ふくまでん</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F42" si="2">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (2,'伏魔殿','ふくまでん','fukumaden',5);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>おおごしょ</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (3,'大御所','おおごしょ','oogosyo',5);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>きんじとう</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (4,'金字塔','きんじとう','kinjitou',5);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>してんのう</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (5,'四天王','してんのう','sitennou',5);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>てんちじん</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (6,'天地人','てんちじん','tentijin',5);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B8))</f>
+        <v>ふくまでん</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (7,'伏魔殿','ふくまでん','fukumaden',5);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>おおごしょ</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (8,'大御所','おおごしょ','oogosyo',5);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>きんじとう</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (9,'金字塔','きんじとう','kinjitou',5);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>してんのう</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (10,'四天王','してんのう','sitennou',5);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>とうきょう</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (11,'東京','とうきょう','toukyou',5);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>ふうぶつし</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (12,'風物詩','ふうぶつし','huubutusi',5);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (13,'ペンライト','ぺんらいと','penraito',5);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (14,'暴風雨','ぼうふうう','bouhuu',5);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (15,'アジフライ','あじふらい','ajifurai',5);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (16,'狙撃手','そげきしゅ','sogekisyu',5);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (17,'得手不得手','えてふえて','etehuete',5);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (18,'雪月花','せつげつか','setugetuka',5);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (19,'オムライス','オムライス','omuraisu',5);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (20,'羅針盤','らしんばん','rasinban',5);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (21,'蜃気楼','しんきろう','sinkirou',5);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (22,'目標','もくひょう','mokuhyou',5);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (23,'摩天楼','まてんろう','matenrou',5);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (24,'風物詩','ふうぶつし','hubutusi',5);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (25,'八百万','やおよろず','yaoyorozu',5);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (26,'能天気','のうてんき','noutenki',5);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (27,'サイコパス','さいこぱす','saikopasu',5);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (28,'ハンバーグ','ハンバーグ','hanba-gu',5);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (29,'ランドセル','らんどせる','randoseru',5);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (30,'エビフライ','えびふらい','ebifurai',5);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (31,'ツナサンド','つなさんど','tunasanndo',5);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (32,'モンブラン','もんぶらん','monburan',5);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (33,'ロースカツ','ろーすかつ','ro-sukatu',5);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (34,'チキンカツ','ちきんかつ','tikinkatu',5);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (35,'西遊記','さいゆうき','saiyuuki',5);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (36,'ピカチュウ','ぴかちゅう','pikatyuu',5);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (37,'親子丼','おやこどん','oyakodon',5);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (38,'カレーパン','かれーぱん','kare-pan',5);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (39,'ズワイガニ','ずわいがに','zuwaigani',5);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (40,'チャーハン','ちゃーはん','tya-han',5);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (41,'ナポリタン','なぽりたん','naporitan',5);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70DB0F-63B9-4E3B-A241-4C0F3245D929}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2559,22 +4542,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2582,17 +4565,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
+        <v>61</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B2))</f>
+        <v>しんよこはま</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
       </c>
       <c r="E2">
         <f>LEN(C2)</f>
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>156</v>
+      <c r="F2" t="str">
+        <f>"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (1,'新横浜','しんよこはま','sinyokohama',6);</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2600,14 +4588,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C50" si="0">_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B3))</f>
+        <v>しんおおさか</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">LEN(C3)</f>
+        <f t="shared" ref="E3:E66" si="1">LEN(C3)</f>
         <v>6</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F50" si="2">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (2,'新大阪','しんおおさか','sinoosaka',6);</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2615,14 +4611,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>あおしんごう</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (3,'青信号','あおしんごう','aosingou',6);</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2630,14 +4634,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
+        <v>64</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>あくてんこう</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (4,'悪天候','あくてんこう','akutenkou',6);</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2645,694 +4657,1213 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
+        <v>65</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>あつげしょう</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (5,'厚化粧','あつげしょう','atugesyou',6);</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="str">
+        <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B7))</f>
+        <v>シンフォギア</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (6,'シンフォギア','シンフォギア','sinfogia',6);</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>チョコレート</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (7,'チョコレート','チョコレート','tyokore-to',6);</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>あんぜんせい</v>
+      </c>
+      <c r="D9" t="s">
+        <v>195</v>
+      </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (8,'安全性','あんぜんせい','anzensei',6);</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>うんどうぐつ</v>
+      </c>
+      <c r="D10" t="s">
+        <v>197</v>
+      </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (9,'運動靴','うんどうぐつ','undougutu',6);</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>エントランス</v>
+      </c>
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (10,'エントランス','エントランス','entoransu',6);</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (11,'音楽家','おんがくか','ongakuka',5);</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>かいすいよく</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (12,'海水浴','かいすいよく','kaisuiyoku',6);</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>かんわじてん</v>
+      </c>
+      <c r="D14" t="s">
+        <v>206</v>
+      </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (13,'漢和辞典','かんわじてん','kanwajiten',6);</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>がいこうかん</v>
+      </c>
+      <c r="D15" t="s">
+        <v>208</v>
+      </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (14,'外交官','がいこうかん','gaikoukan',6);</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" t="s">
+        <v>211</v>
+      </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (15,'ガイドライン','がいどらいん','gaidorain',6);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>きしょうかち</v>
+      </c>
+      <c r="D17" t="s">
+        <v>213</v>
+      </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (16,'希少価値','きしょうかち','kisyoukati',6);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" t="s">
+        <v>216</v>
+      </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (17,'キャンピング','きゃんぴんぐ','kyanpingu',6);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" t="s">
+        <v>219</v>
+      </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (18,'キングサイズ','きんぐさいず','kingusaizu',6);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" t="s">
+        <v>222</v>
+      </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (19,'最上位','さいじょうい','saizyoui',6);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>さいばんしょ</v>
+      </c>
+      <c r="D21" t="s">
+        <v>224</v>
+      </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (20,'裁判所','さいばんしょ','saibansyo',6);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>さぎょうふく</v>
+      </c>
+      <c r="D22" t="s">
+        <v>226</v>
+      </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (21,'作業服','さぎょうふく','sagyouhuku',6);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" t="s">
+        <v>229</v>
+      </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (22,'桜吹雪','さくらふぶき','sakurahubuki',6);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" t="s">
+        <v>232</v>
+      </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (23,'サラブレッド','さらぶれっど','sarabureltudo',6);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" t="s">
+        <v>235</v>
+      </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (24,'サンドイッチ','さんどいっち','sanndoiltuti',6);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" t="s">
+        <v>238</v>
+      </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (25,'サンプリング','さんぷりんぐ','sanpuringu',6);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (26,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR: 文字列 text を指定してください</v>
+      </c>
       <c r="E50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (,'','ERROR: 文字列 text を指定してください','',25);</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E67">
-        <f t="shared" ref="E67:E117" si="1">LEN(C67)</f>
+        <f t="shared" ref="E67:E117" si="3">LEN(C67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3341,4 +5872,669 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DC4587-C9B6-494D-9491-9D7EC98DEEA5}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (1,'アイスクリーム','あいすくりーむ','aisukuri-mu',7);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F21" si="0">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (2,'アルファベット','あるふぁべっと','arufabeltuto',7);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4" si="1">_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B4))</f>
+        <v>あんぜんちたい</v>
+      </c>
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (3,'安全地帯','あんぜんちたい','anzentitai',7);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (4,'杏仁豆腐','あんにんどうふ','annindouhu',7);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (5,'育児休暇','いくじきゅうか','ikujikyuka',7);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (6,'以心伝心','いしんでんしん','isindensin',7);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (7,'エキシビション','えきしびしょん','ekisibisyon',7);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (8,'遠隔操作','えんかくそうさ','enkakusousa',7);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (9,'円周率','えんしゅうりつ','ensyuritu',7);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (10,'横断歩道','おうだんほどう','oudanhodou',7);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (11,'海外ドラマ','かいがいどらま','kaigaidorama',7);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (12,'カウンセリング','かうんせりんぐ','kaunseringu',7);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (13,'カウントダウン','かうんとだうん','kauntodaun',7);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (14,'ギフトショップ','ぎふとしょっぷ','gifutosyoltupu',7);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (15,'クランクアップ','くらんくあっぷ','kurankualtupu',7);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (16,'クレッシェンド','クレシェンド','kuresyendo',7);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (17,'グランドピアノ','ぐらんどぴあの','gurandopiano',7);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (18,'原稿用紙','げんこうようし','genkouyousi',7);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (19,'原材料','げんざいりょう','genzairyou',7);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (20,'豪速球','ごうそっきゅう','gousoltukyuu',7);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7360F1B-D34E-4704-ACEB-EEC681698425}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B2))</f>
+        <v>いでんしこうがく</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2">
+        <f>LEN(C2)</f>
+        <v>8</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (1,'遺伝子工学','いでんしこうがく','idensikougaku',8);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" si="0">_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B3))</f>
+        <v>いんすうぶんかい</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="1">LEN(C3)</f>
+        <v>8</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F4" si="2">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (2,'因数分解','いんすうぶんかい','insuubunkai',8);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>ぎふ</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (3,'岐阜','ぎふ','gifu',2);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F933366D-BE62-46D2-8CCB-CAF9AB546C33}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.WEBSERVICE("https://api.excelapi.org/language/kanji2kana?text="&amp;_xlfn.ENCODEURL(B2))</f>
+        <v>かいちゅうでんとう</v>
+      </c>
+      <c r="D2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2">
+        <f>LEN(C2)</f>
+        <v>9</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (1,'懐中電灯','かいちゅうでんとう','kaityuudentou',9);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="0">LEN(C3)</f>
+        <v>9</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F4" si="1">"INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (" &amp; A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;");"</f>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (2,'エメラルドグリーン','えめらるどぐりーん','emerarudoguri-n',9);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO word (id,keyword,furigana,roma,charNo) VALUES (3,'ロシアンルーレット','ろしあんるーれっと','rosianru-reltuto',9);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>